--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFDBB6E-2324-4D35-A924-93D97904753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1320" yWindow="1416" windowWidth="19104" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こはく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これからチュートリアルを開始するわ！</t>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みさき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こはくちゃんどうしたの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何でもないわ！</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +82,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +398,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="49.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C26626E-D2C2-4005-9665-351ED49D9134}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFDBB6E-2324-4D35-A924-93D97904753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D330F-4930-4686-9FEF-AFD8B712E790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1416" windowWidth="19104" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +66,28 @@
     <t>何でもないわ！</t>
     <rPh sb="0" eb="1">
       <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふぁ…、眠い</t>
+    <rPh sb="4" eb="5">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャキッとしなさい！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それじゃぁ、始めるわよ！</t>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -463,6 +485,39 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D330F-4930-4686-9FEF-AFD8B712E790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E0CC0-555B-4C5F-BFEB-E13289F6EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1416" windowWidth="19104" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="936" windowWidth="19104" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
-    <sheet name="Stage_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Story" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +85,14 @@
     <rPh sb="6" eb="7">
       <t>ハジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charaID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storyID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -421,103 +425,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="49.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -529,26 +558,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C26626E-D2C2-4005-9665-351ED49D9134}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E0CC0-555B-4C5F-BFEB-E13289F6EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5B487-86FA-4E27-BFB0-38688E1E4597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="936" windowWidth="19104" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2796" yWindow="936" windowWidth="19104" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,23 @@
   </si>
   <si>
     <t>storyID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはNPCの会話です</t>
+    <rPh sb="7" eb="9">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterキーで会話が進みます</t>
+    <rPh sb="8" eb="10">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -558,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C26626E-D2C2-4005-9665-351ED49D9134}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -584,8 +601,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5B487-86FA-4E27-BFB0-38688E1E4597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B9709-AB10-499D-AAEF-73F2D88825CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2796" yWindow="936" windowWidth="19104" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9372" yWindow="1380" windowWidth="19104" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/Assets/SentenceData.xlsx
+++ b/Assets/SentenceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\OneDrive\ドキュメント\CleanGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534B9709-AB10-499D-AAEF-73F2D88825CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F34EE6-267C-44CD-A5EF-15035B294119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9372" yWindow="1380" windowWidth="19104" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,14 @@
     <rPh sb="11" eb="12">
       <t>スス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -566,6 +574,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -577,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C26626E-D2C2-4005-9665-351ED49D9134}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
